--- a/Charges mensuelles.xlsx
+++ b/Charges mensuelles.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Charges de mars 2025" sheetId="1" r:id="rId1"/>
-    <sheet name="Charges avril 2025" sheetId="4" r:id="rId2"/>
+    <sheet name="Charges de Avril 2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Charges Mai 2025" sheetId="4" r:id="rId2"/>
     <sheet name="Dettes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Rubriques</t>
   </si>
@@ -72,12 +72,6 @@
     <t xml:space="preserve">Cie (5 005 + 16 045) </t>
   </si>
   <si>
-    <t>Revenu Fin mars 2025</t>
-  </si>
-  <si>
-    <t>Revenu Fin Fevrier 2025</t>
-  </si>
-  <si>
     <t>SOLDE</t>
   </si>
   <si>
@@ -90,12 +84,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>Anticipation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gaz </t>
   </si>
   <si>
@@ -114,10 +102,28 @@
     <t>J'ai recu un salaire supplementaire 117 950</t>
   </si>
   <si>
-    <t>En Attente pour</t>
-  </si>
-  <si>
-    <t>retirer</t>
+    <t>carte de bus</t>
+  </si>
+  <si>
+    <t>Remettre</t>
+  </si>
+  <si>
+    <t>Recharge carte de bus</t>
+  </si>
+  <si>
+    <t>total à concerver pour la fin du mois</t>
+  </si>
+  <si>
+    <t>Revenu du 20 Mars 2025 recu le 11-Avril</t>
+  </si>
+  <si>
+    <t>Revenu 20 Avril 2025 espéré au 05 Mai</t>
+  </si>
+  <si>
+    <t>En Attente pour le 05/05</t>
+  </si>
+  <si>
+    <t>Montant d'anticipation à déduire</t>
   </si>
 </sst>
 </file>
@@ -181,14 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -206,6 +204,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,9 +266,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,14 +280,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -295,6 +296,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,7 +609,7 @@
   <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,15 +620,15 @@
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4">
+    <row r="2" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="22">
         <v>148000</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>31</v>
+      <c r="D2" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -652,8 +660,8 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>21</v>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -663,8 +671,8 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>21</v>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -674,8 +682,8 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>22</v>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -686,15 +694,15 @@
         <v>5000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -704,7 +712,7 @@
         <v>10000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -715,15 +723,26 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -733,7 +752,7 @@
         <v>10000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -744,28 +763,28 @@
         <v>10000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <f>SUM(C5:C24)</f>
-        <v>100000</v>
-      </c>
-      <c r="D25" s="14"/>
+        <v>105000</v>
+      </c>
+      <c r="D25" s="13"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="16">
+      <c r="B27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="15">
         <f>C2-C25</f>
-        <v>48000</v>
-      </c>
-      <c r="D27" s="17"/>
+        <v>43000</v>
+      </c>
+      <c r="D27" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -775,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,22 +808,22 @@
     <col min="4" max="4" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>18</v>
+    <row r="2" spans="2:4" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="4">
         <v>194250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="18">
         <v>117950</v>
       </c>
     </row>
@@ -823,44 +842,44 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="20">
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="20">
         <v>10000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="18">
+        <v>22</v>
+      </c>
+      <c r="C9" s="17">
         <v>5500</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -871,25 +890,25 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>10000</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -900,34 +919,54 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="17">
+        <v>15000</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="18">
+        <v>25</v>
+      </c>
+      <c r="C19" s="17">
         <v>5000</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <f>SUM(C5:C24)</f>
-        <v>40500</v>
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <f>C19+C13+C9+C15</f>
+        <v>35500</v>
       </c>
     </row>
   </sheetData>
@@ -947,14 +986,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>35000</v>
       </c>
     </row>
@@ -962,7 +1001,7 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>10500</v>
       </c>
     </row>
